--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>基本情况</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>是否预投</t>
-  </si>
-  <si>
-    <t>□是</t>
-  </si>
-  <si>
-    <t>□否</t>
   </si>
   <si>
     <t>是否融资项目</t>
@@ -337,27 +331,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>物流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（审议内容：运输方式、单据、包装要求、保险、产地证、报关、报检等）
-是否需要审核：□ 是    □ 否                                                      
-                                                          审核人：</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有预付款：      □ 是    □ 否              年      月      日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>贸易术语</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -596,15 +569,170 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>□是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>币种：              小写：        （大写）                □ 含税 □不含税</t>
+    <r>
+      <t xml:space="preserve">币种：              小写：        （大写）                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 含税 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不含税</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是否有预付款：      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 是    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 否              年      月      日</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>物流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（审议内容：运输方式、单据、包装要求、保险、产地证、报关、报检等）
+是否需要审核：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 是    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 否                                                      
+                                                          审核人：</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +1000,18 @@
       <color theme="1"/>
       <name val="Wingdings 2"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Wingdings 2"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1165,6 +1305,150 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1174,21 +1458,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,9 +1503,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1302,132 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,7 +1934,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1813,19 +1953,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="A1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1837,591 +1977,591 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="69"/>
+      <c r="J2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+        <v>42</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="79"/>
+      <c r="G3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="107" t="s">
+      <c r="C8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="81"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="54"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="54"/>
+      <c r="B20" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="54"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="54"/>
+      <c r="B22" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="54"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="54"/>
+      <c r="B24" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="54"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="54"/>
+      <c r="B26" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="54"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="54"/>
+      <c r="B28" s="71" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="6" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="80"/>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="54"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="54"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-    </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-    </row>
-    <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
-      <c r="B13" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="86" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="54"/>
+      <c r="B32" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="54"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-    </row>
-    <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-    </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="45" t="s">
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="108"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
-      <c r="B28" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="67"/>
-      <c r="B32" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -2607,6 +2747,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="B24:J25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="C16:J17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B20:J21"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -2623,27 +2784,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C8:K12"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B34:J35"/>
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="C16:J17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>基本情况</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>是否预投</t>
+  </si>
+  <si>
+    <t>□是</t>
+  </si>
+  <si>
+    <t>□否</t>
   </si>
   <si>
     <t>是否融资项目</t>
@@ -75,6 +81,10 @@
   </si>
   <si>
     <t>客户代码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种：              小写：        （大写）                □ 含税 □不含税</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -154,6 +164,65 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写签约主体公司</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品销售类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际销售合同签订审批表</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -225,10 +294,6 @@
   </si>
   <si>
     <t>地区总经理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额在10万美金以上的</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -331,6 +396,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>物流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（审议内容：运输方式、单据、包装要求、保险、产地证、报关、报检等）
+是否需要审核：□ 是    □ 否                                                      
+                                                          审核人：</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有预付款：      □ 是    □ 否              年      月      日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>贸易术语</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -360,7 +446,7 @@
 对合同的商务报价、配置明细、交货期及可操作性进行审核。（业务单元商务报价负责人或其指定授权人）
 毛利率     %（业务单元自行计算）                    审核人：</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>编号：ER-SW-001.03B</t>
@@ -441,7 +527,7 @@
 对合同的技术要求（协议、参数、方案等）进行审核。（业务单元技术负责人或其指定授权人） 
                                                     审核人：  </t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>发起部门</t>
@@ -494,245 +580,46 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>事业部总监</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部总经理/总裁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额在10万美金以上的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>接收时间：审核流入时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>接收时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">取走时间：审核流出时间 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>事业部总监</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部总经理/总裁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写签约主体公司</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="18"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品销售类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际销售合同签订审批表</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">币种：              小写：        （大写）                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 含税 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不含税</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">是否有预付款：      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 是    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 否              年      月      日</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>物流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（审议内容：运输方式、单据、包装要求、保险、产地证、报关、报检等）
-是否需要审核：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 是    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 否                                                      
-                                                          审核人：</t>
-    </r>
+    <t>分管领导</t>
+    <rPh sb="0" eb="1">
+      <t>fen'guan'ling'dao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>取走时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>□否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,14 +806,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF00B0F0"/>
@@ -987,30 +866,6 @@
       <color rgb="FFFF0000"/>
       <name val="仿宋"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Wingdings 2"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Wingdings 2"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体 (正文)"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1241,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1121,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,23 +1151,215 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1320,7 +1370,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,10 +1385,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,10 +1427,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,176 +1448,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,635 +1815,642 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="E4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="90"/>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="92"/>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="I5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="92"/>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="92"/>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+    </row>
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="92"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="92"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="92"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="92"/>
+      <c r="B13" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+    </row>
+    <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+    </row>
+    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+    </row>
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="85"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="39"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="61"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="61"/>
+      <c r="B20" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="61"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="61"/>
+      <c r="B22" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="61"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="61"/>
+      <c r="B24" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="61"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="61"/>
+      <c r="B26" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="61"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="61"/>
+      <c r="B28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="61"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="61"/>
+      <c r="B32" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="61"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="5" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="60"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-    </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="81"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="73" t="s">
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="108"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -2746,28 +2635,7 @@
       <c r="K50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B34:J35"/>
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="C16:J17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B20:J21"/>
+  <mergeCells count="41">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -2784,6 +2652,31 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C8:K12"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="B24:J25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -551,6 +551,49 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>事业部总监</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部总经理/总裁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额在10万美金以上的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收时间：审核流入时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">取走时间：审核流出时间 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管领导</t>
+    <rPh sb="0" eb="1">
+      <t>fen'guan'ling'dao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>取走时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>□否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>经办人：市场经办人    回款负责人：</t>
     </r>
@@ -575,51 +618,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>单位总：国家负责人</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部总监</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部总经理/总裁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额在10万美金以上的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收时间：审核流入时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收时间：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">取走时间：审核流出时间 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分管领导</t>
-    <rPh sb="0" eb="1">
-      <t>fen'guan'ling'dao</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>取走时间：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>□否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
+      <t>单位总：</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1163,6 +1163,171 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1172,21 +1337,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,9 +1382,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1280,9 +1427,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1306,150 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1815,8 +1815,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1836,19 +1836,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1860,10 +1860,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="71"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
@@ -1872,26 +1872,26 @@
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="90"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1912,35 +1912,35 @@
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="90" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="90"/>
+      <c r="K4" s="24"/>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="105" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="106"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1950,507 +1950,507 @@
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="107" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
-      <c r="B13" s="96" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="74"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="62" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="89"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="113"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="20" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
       <c r="K21" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
       <c r="K25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
       <c r="K27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="102"/>
       <c r="K30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
       <c r="K31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="61"/>
-      <c r="B32" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
       <c r="K32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
       <c r="K33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
       <c r="K34" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94"/>
       <c r="K35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -2636,6 +2636,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="B24:J25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="G16:H17"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -2652,31 +2677,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C8:K12"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B34:J35"/>
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfy-909/ideaSpace/java/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiaodan/kerui/ideaworkspace/java/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,10 +449,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>编号：ER-SW-001.03B</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -620,6 +616,10 @@
       </rPr>
       <t>单位总：</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号：ER-FW-YX-01</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1163,6 +1163,204 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1252,204 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1815,8 +1815,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:K15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1836,19 +1836,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1860,38 +1860,38 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="53"/>
+      <c r="J2" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="92" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1904,7 +1904,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
@@ -1912,35 +1912,35 @@
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="91"/>
+      <c r="J4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="24"/>
+      <c r="K4" s="90"/>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="39" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1950,507 +1950,507 @@
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="41" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
     </row>
     <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
     </row>
     <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="85"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="110" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="39"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="20" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="B18" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="95" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="79" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="99" t="s">
+      <c r="B30" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="102"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="105"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="81" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="84"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
       <c r="K32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="87"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="109"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="94"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
       <c r="K35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -2636,6 +2636,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:K12"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="G16:H17"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="B28:J29"/>
     <mergeCell ref="B30:B31"/>
@@ -2652,31 +2677,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="I16:J17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:K12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>基本情况</t>
   </si>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>物流报价单编号：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场填写</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -559,15 +555,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>接收时间：审核流入时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>接收时间：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">取走时间：审核流出时间 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -620,6 +608,10 @@
   </si>
   <si>
     <t>编号：ER-FW-YX-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>取走时间：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1816,7 +1808,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1837,7 +1829,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -1861,7 +1853,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="70" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="71"/>
     </row>
@@ -1870,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="113" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="113" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="114"/>
       <c r="E3" s="115"/>
@@ -1881,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
@@ -1897,14 +1889,12 @@
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
@@ -1921,7 +1911,7 @@
       </c>
       <c r="K4" s="90"/>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1934,7 +1924,7 @@
       </c>
       <c r="D5" s="111"/>
       <c r="E5" s="112" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="111"/>
       <c r="G5" s="105" t="s">
@@ -1942,10 +1932,10 @@
       </c>
       <c r="H5" s="106"/>
       <c r="I5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="16"/>
     </row>
@@ -1975,7 +1965,7 @@
       <c r="D7" s="78"/>
       <c r="E7" s="79"/>
       <c r="F7" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="108"/>
       <c r="H7" s="108"/>
@@ -2055,10 +2045,10 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="92"/>
       <c r="B13" s="96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
@@ -2086,7 +2076,7 @@
       <c r="A15" s="92"/>
       <c r="B15" s="97"/>
       <c r="C15" s="101" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="102"/>
       <c r="E15" s="102"/>
@@ -2097,38 +2087,38 @@
       <c r="J15" s="103"/>
       <c r="K15" s="104"/>
     </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="84" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="66"/>
       <c r="J16" s="67"/>
       <c r="K16" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="39"/>
       <c r="B17" s="58"/>
       <c r="C17" s="82"/>
       <c r="D17" s="83"/>
       <c r="E17" s="64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="86"/>
@@ -2136,15 +2126,15 @@
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
       <c r="K17" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2176,7 +2166,7 @@
     <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="61"/>
       <c r="B20" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -2208,7 +2198,7 @@
     <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61"/>
       <c r="B22" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -2240,7 +2230,7 @@
     <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61"/>
       <c r="B24" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -2272,7 +2262,7 @@
     <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61"/>
       <c r="B26" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
@@ -2304,7 +2294,7 @@
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="61"/>
       <c r="B28" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -2335,13 +2325,13 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
@@ -2372,10 +2362,10 @@
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61"/>
       <c r="B32" s="76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -2405,10 +2395,10 @@
     </row>
     <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -2439,7 +2429,7 @@
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiaodan/kerui/ideaworkspace/java/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfy-909/ideaSpace/java/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>基本情况</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>物流报价单编号：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场填写</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -445,6 +449,10 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
+    <t>编号：ER-SW-001.03B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -555,7 +563,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>接收时间：审核流入时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>接收时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">取走时间：审核流出时间 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -604,14 +620,6 @@
       </rPr>
       <t>单位总：</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号：ER-FW-YX-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>取走时间：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1155,6 +1163,171 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1164,21 +1337,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,9 +1382,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1272,9 +1427,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1298,150 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1807,8 +1815,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1828,19 +1836,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="A1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1852,49 +1860,51 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="71"/>
+      <c r="J2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+        <v>47</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90" t="s">
+      <c r="G3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="90"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
@@ -1902,545 +1912,545 @@
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="90" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="90"/>
+      <c r="K4" s="24"/>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="105" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="106"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
-      <c r="B13" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="98" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-    </row>
-    <row r="14" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="101" t="s">
+      <c r="C16" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
       <c r="K16" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="89"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="113"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
       <c r="K17" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="A18" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
       <c r="K21" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
       <c r="K25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
-      <c r="B26" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
       <c r="K27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
+      <c r="A30" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="102"/>
       <c r="K30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
       <c r="K31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="61"/>
-      <c r="B32" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
       <c r="K32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
       <c r="K33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
+      <c r="A34" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
       <c r="K34" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94"/>
       <c r="K35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="A36" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -2626,6 +2636,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="B24:J25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="G16:H17"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -2642,31 +2677,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C8:K12"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B34:J35"/>
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>产品销售类销售合同签订审批表</t>
   </si>
@@ -224,14 +224,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术要求及方案：</t>
+      <t>技术要求、商务报价及交货期：</t>
     </r>
     <r>
       <rPr>
@@ -241,35 +234,12 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-对合同的技术要求（协议、参数、方案等）进行审核。（业务单元技术负责人或其指定授权人） 
-                                                    审核人：  </t>
+对合同的技术要求（协议、参数、方案等）、商务报价、交货期及可操作性进行审核。
+                                                         审核人：  </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">取走时间： </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商务报价、配置及交货期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-对合同的商务报价、配置明细、交货期及可操作性进行审核。（业务单元商务报价负责人或其指定授权人）
-                                                    审核人：</t>
-    </r>
   </si>
   <si>
     <r>
@@ -281,16 +251,15 @@
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
+      <t>：对合同结算风险，税务风险及订单收益情况进行审核</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+        <sz val="9"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t>对合同结算风险，税务风险及订单收益情况进行审核</t>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -299,7 +268,7 @@
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">。
+      <t xml:space="preserve">
                                                         </t>
     </r>
     <r>
@@ -380,12 +349,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,10 +447,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,8 +468,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,25 +558,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,52 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -591,30 +582,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -633,6 +602,11 @@
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -655,19 +629,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,157 +791,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +990,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,7 +1038,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,17 +1065,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,152 +1088,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,10 +1354,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,6 +1481,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,8 +1905,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:J25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1942,7 +1940,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="64"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:12">
       <c r="A2" s="4"/>
@@ -1954,11 +1952,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="64"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
@@ -1971,8 +1969,8 @@
         <v>4</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="57" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -1980,11 +1978,11 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" ht="21.95" customHeight="1" spans="1:12">
       <c r="A4" s="9" t="s">
@@ -2002,21 +2000,21 @@
       <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="66" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="69" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2033,18 +2031,18 @@
         <v>15</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="67" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:12">
       <c r="A6" s="9"/>
@@ -2061,8 +2059,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="64"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" ht="23.1" customHeight="1" spans="1:12">
       <c r="A7" s="9"/>
@@ -2071,16 +2069,16 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="64"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:12">
       <c r="A8" s="9"/>
@@ -2098,7 +2096,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="64"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:12">
       <c r="A9" s="9"/>
@@ -2112,7 +2110,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="64"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:12">
       <c r="A10" s="9"/>
@@ -2126,7 +2124,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="64"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" ht="11.25" hidden="1" customHeight="1" spans="1:12">
       <c r="A11" s="9"/>
@@ -2140,7 +2138,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="64"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" ht="13.5" hidden="1" customHeight="1" spans="1:12">
       <c r="A12" s="9"/>
@@ -2154,7 +2152,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="64"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9"/>
@@ -2166,13 +2164,13 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="64"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:12">
       <c r="A14" s="9"/>
@@ -2186,7 +2184,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="64"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
       <c r="A15" s="9"/>
@@ -2201,8 +2199,8 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="29" t="s">
@@ -2213,20 +2211,20 @@
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60" t="s">
+      <c r="F16" s="64"/>
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
       <c r="K16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="64"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="32"/>
@@ -2237,14 +2235,14 @@
         <v>34</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="64"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" ht="34.5" customHeight="1" spans="1:12">
       <c r="A18" s="9" t="s">
@@ -2260,11 +2258,11 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="76"/>
+      <c r="J18" s="81"/>
       <c r="K18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="64"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:12">
       <c r="A19" s="9"/>
@@ -2276,11 +2274,11 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="77"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:12">
       <c r="A20" s="9"/>
@@ -2294,134 +2292,132 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" ht="26.25" customHeight="1" spans="1:12">
       <c r="A21" s="9"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="84"/>
       <c r="K21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="64"/>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" ht="21.95" customHeight="1" spans="1:12">
       <c r="A22" s="9"/>
-      <c r="B22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="64"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:12">
       <c r="A23" s="9"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="64"/>
+      <c r="L23" s="69"/>
     </row>
     <row r="24" ht="21.95" customHeight="1" spans="1:12">
       <c r="A24" s="9"/>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="64"/>
+      <c r="L24" s="69"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" spans="1:12">
       <c r="A25" s="9"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="64"/>
+      <c r="L25" s="69"/>
     </row>
     <row r="26" ht="21.95" customHeight="1" spans="1:12">
       <c r="A26" s="9"/>
-      <c r="B26" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="B26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="64"/>
+        <v>40</v>
+      </c>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:12">
       <c r="A27" s="9"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="69"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:12">
       <c r="A28" s="9"/>
-      <c r="B28" s="46" t="s">
-        <v>43</v>
+      <c r="B28" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -2430,11 +2426,11 @@
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="78" t="s">
+      <c r="J28" s="81"/>
+      <c r="K28" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="64"/>
+      <c r="L28" s="69"/>
     </row>
     <row r="29" ht="23.25" customHeight="1" spans="1:12">
       <c r="A29" s="9"/>
@@ -2446,271 +2442,271 @@
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="77"/>
+      <c r="J29" s="82"/>
       <c r="K29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="69"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:12">
       <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="64"/>
+      <c r="L30" s="69"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A31" s="9"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
       <c r="K31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="79"/>
+      <c r="L31" s="87"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:12">
       <c r="A32" s="9"/>
-      <c r="B32" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="64"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:12">
       <c r="A33" s="9"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="64"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:12">
       <c r="A34" s="9"/>
-      <c r="B34" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L34" s="64"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="64"/>
+      <c r="L35" s="69"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -198,6 +198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>金融业务部（仅适用于有融资的合同）：</t>
     </r>
     <r>
@@ -224,6 +230,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>技术要求、商务报价及交货期：</t>
     </r>
     <r>
@@ -350,9 +363,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -440,7 +453,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,13 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -476,10 +496,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,9 +543,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,14 +574,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,44 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -583,14 +604,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="8"/>
       <color theme="1"/>
@@ -629,43 +642,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,31 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,25 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,67 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,6 +996,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1010,6 +1032,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1028,27 +1061,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1088,148 +1101,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1906,7 +1919,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:J21"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2325,9 +2338,7 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="84"/>
-      <c r="K22" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="69"/>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:12">
@@ -2341,9 +2352,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="85"/>
-      <c r="K23" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="69"/>
     </row>
     <row r="24" ht="21.95" customHeight="1" spans="1:12">

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -256,6 +256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>结算审核</t>
     </r>
     <r>
@@ -364,8 +370,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -459,20 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -481,6 +473,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -496,6 +518,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,22 +587,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -545,59 +603,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,13 +642,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,169 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,6 +1023,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1028,41 +1043,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,157 +1076,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,10 +1413,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1918,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1953,7 +1956,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="69"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:12">
       <c r="A2" s="4"/>
@@ -1965,11 +1968,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
@@ -1982,8 +1985,8 @@
         <v>4</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -1991,11 +1994,11 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="69"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" ht="21.95" customHeight="1" spans="1:12">
       <c r="A4" s="9" t="s">
@@ -2013,7 +2016,7 @@
       <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="52" t="s">
@@ -2023,11 +2026,11 @@
         <v>15</v>
       </c>
       <c r="I4" s="52"/>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="69" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2044,18 +2047,18 @@
         <v>15</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="72" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:12">
       <c r="A6" s="9"/>
@@ -2072,8 +2075,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" ht="23.1" customHeight="1" spans="1:12">
       <c r="A7" s="9"/>
@@ -2082,16 +2085,16 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="69"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:12">
       <c r="A8" s="9"/>
@@ -2109,7 +2112,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="69"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:12">
       <c r="A9" s="9"/>
@@ -2123,7 +2126,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:12">
       <c r="A10" s="9"/>
@@ -2137,7 +2140,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" ht="11.25" hidden="1" customHeight="1" spans="1:12">
       <c r="A11" s="9"/>
@@ -2151,7 +2154,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="69"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" ht="13.5" hidden="1" customHeight="1" spans="1:12">
       <c r="A12" s="9"/>
@@ -2165,7 +2168,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="69"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9"/>
@@ -2183,7 +2186,7 @@
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="69"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:12">
       <c r="A14" s="9"/>
@@ -2197,7 +2200,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="69"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
       <c r="A15" s="9"/>
@@ -2212,8 +2215,8 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="69"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="29" t="s">
@@ -2224,20 +2227,20 @@
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="69"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="32"/>
@@ -2248,14 +2251,14 @@
         <v>34</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" ht="34.5" customHeight="1" spans="1:12">
       <c r="A18" s="9" t="s">
@@ -2271,11 +2274,11 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="81"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:12">
       <c r="A19" s="9"/>
@@ -2287,11 +2290,11 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="82"/>
+      <c r="J19" s="81"/>
       <c r="K19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="69"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:12">
       <c r="A20" s="9"/>
@@ -2305,13 +2308,13 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="83"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="69"/>
-    </row>
-    <row r="21" ht="26.25" customHeight="1" spans="1:12">
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" ht="46" customHeight="1" spans="1:12">
       <c r="A21" s="9"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
@@ -2321,11 +2324,11 @@
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="84"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="69"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" ht="21.95" customHeight="1" spans="1:12">
       <c r="A22" s="9"/>
@@ -2337,9 +2340,9 @@
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
-      <c r="J22" s="84"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="69"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:12">
       <c r="A23" s="9"/>
@@ -2351,9 +2354,9 @@
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="85"/>
+      <c r="J23" s="84"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="69"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" ht="21.95" customHeight="1" spans="1:12">
       <c r="A24" s="9"/>
@@ -2371,7 +2374,7 @@
       <c r="K24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" spans="1:12">
       <c r="A25" s="9"/>
@@ -2387,7 +2390,7 @@
       <c r="K25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" ht="21.95" customHeight="1" spans="1:12">
       <c r="A26" s="9"/>
@@ -2405,7 +2408,7 @@
       <c r="K26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:12">
       <c r="A27" s="9"/>
@@ -2421,7 +2424,7 @@
       <c r="K27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="69"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:12">
       <c r="A28" s="9"/>
@@ -2435,11 +2438,11 @@
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="86" t="s">
+      <c r="J28" s="80"/>
+      <c r="K28" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="69"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" ht="23.25" customHeight="1" spans="1:12">
       <c r="A29" s="9"/>
@@ -2451,11 +2454,11 @@
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="82"/>
+      <c r="J29" s="81"/>
       <c r="K29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="69"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:12">
       <c r="A30" s="9" t="s">
@@ -2475,7 +2478,7 @@
       <c r="K30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="69"/>
+      <c r="L30" s="68"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A31" s="9"/>
@@ -2491,7 +2494,7 @@
       <c r="K31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="87"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:12">
       <c r="A32" s="9"/>
@@ -2501,31 +2504,31 @@
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="69"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:12">
       <c r="A33" s="9"/>
       <c r="B33" s="52"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:12">
       <c r="A34" s="9"/>
@@ -2535,187 +2538,187 @@
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L34" s="69"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9"/>
       <c r="B35" s="52"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="69"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/国际销售合同签订审批表V3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27280" windowHeight="11740"/>
+    <workbookView windowWidth="27280" windowHeight="11120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>产品销售类销售合同签订审批表</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>合同标的</t>
-  </si>
-  <si>
-    <t>项目名称</t>
   </si>
   <si>
     <r>
@@ -368,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -465,6 +462,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -473,8 +498,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,25 +522,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,53 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,29 +607,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="8"/>
       <color theme="1"/>
@@ -642,79 +639,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,103 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,24 +1007,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,17 +1026,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,150 +1084,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1921,8 +1918,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1990,72 +1987,72 @@
         <v>5</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="70"/>
       <c r="L3" s="68"/>
     </row>
     <row r="4" ht="21.95" customHeight="1" spans="1:12">
       <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="G4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="H4" s="52" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>15</v>
       </c>
       <c r="I4" s="52"/>
       <c r="J4" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="70"/>
       <c r="L4" s="68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:12">
       <c r="A5" s="9"/>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="72"/>
       <c r="L5" s="68"/>
@@ -2063,10 +2060,10 @@
     <row r="6" ht="24" customHeight="1" spans="1:12">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2081,13 +2078,13 @@
     <row r="7" ht="23.1" customHeight="1" spans="1:12">
       <c r="A7" s="9"/>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="59"/>
       <c r="F7" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -2099,10 +2096,10 @@
     <row r="8" ht="12" customHeight="1" spans="1:12">
       <c r="A8" s="9"/>
       <c r="B8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -2173,10 +2170,10 @@
     <row r="13" spans="1:12">
       <c r="A13" s="9"/>
       <c r="B13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -2206,7 +2203,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="25"/>
       <c r="C15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -2220,25 +2217,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="76"/>
       <c r="J16" s="77"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="68"/>
     </row>
@@ -2248,7 +2245,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
       <c r="E17" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="66"/>
@@ -2256,16 +2253,16 @@
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
       <c r="K17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="68"/>
     </row>
     <row r="18" ht="34.5" customHeight="1" spans="1:12">
       <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -2276,7 +2273,7 @@
       <c r="I18" s="37"/>
       <c r="J18" s="80"/>
       <c r="K18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="68"/>
     </row>
@@ -2292,14 +2289,14 @@
       <c r="I19" s="39"/>
       <c r="J19" s="81"/>
       <c r="K19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="68"/>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:12">
       <c r="A20" s="9"/>
       <c r="B20" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -2310,7 +2307,7 @@
       <c r="I20" s="41"/>
       <c r="J20" s="82"/>
       <c r="K20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" s="68"/>
     </row>
@@ -2326,7 +2323,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="83"/>
       <c r="K21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" s="68"/>
     </row>
@@ -2361,7 +2358,7 @@
     <row r="24" ht="21.95" customHeight="1" spans="1:12">
       <c r="A24" s="9"/>
       <c r="B24" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
@@ -2372,7 +2369,7 @@
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
       <c r="K24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="68"/>
     </row>
@@ -2388,14 +2385,14 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="K25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L25" s="68"/>
     </row>
     <row r="26" ht="21.95" customHeight="1" spans="1:12">
       <c r="A26" s="9"/>
       <c r="B26" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -2406,7 +2403,7 @@
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L26" s="68"/>
     </row>
@@ -2422,14 +2419,14 @@
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
       <c r="K27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L27" s="68"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:12">
       <c r="A28" s="9"/>
       <c r="B28" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -2440,7 +2437,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="80"/>
       <c r="K28" s="85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L28" s="68"/>
     </row>
@@ -2456,16 +2453,16 @@
       <c r="I29" s="39"/>
       <c r="J29" s="81"/>
       <c r="K29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L29" s="68"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:12">
       <c r="A30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -2476,7 +2473,7 @@
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
       <c r="K30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L30" s="68"/>
     </row>
@@ -2492,14 +2489,14 @@
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
       <c r="K31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" s="86"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:12">
       <c r="A32" s="9"/>
       <c r="B32" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -2510,7 +2507,7 @@
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
       <c r="K32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L32" s="68"/>
     </row>
@@ -2526,14 +2523,14 @@
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
       <c r="K33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L33" s="68"/>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:12">
       <c r="A34" s="9"/>
       <c r="B34" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -2544,7 +2541,7 @@
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
       <c r="K34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L34" s="68"/>
     </row>
@@ -2560,7 +2557,7 @@
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
       <c r="K35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L35" s="68"/>
     </row>
